--- a/11-design-tuning/GAG-checklist.xlsx
+++ b/11-design-tuning/GAG-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-gamedev\gamedev-5781\11-design-tuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15738F33-06AA-4187-8E32-84F59859BAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBA34A5-84A1-451E-BA39-E29613CB54A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
